--- a/bankguru99/TestData/TestData.xlsx
+++ b/bankguru99/TestData/TestData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>userid</t>
   </si>
@@ -25,12 +25,6 @@
     <t>pasword</t>
   </si>
   <si>
-    <t>mngr448494</t>
-  </si>
-  <si>
-    <t>ynUtemE</t>
-  </si>
-  <si>
     <t>Customer Name</t>
   </si>
   <si>
@@ -55,9 +49,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Amit</t>
-  </si>
-  <si>
     <t>Dhankwadi</t>
   </si>
   <si>
@@ -70,19 +61,31 @@
     <t>PIN</t>
   </si>
   <si>
-    <t>amit999@gmail.com</t>
-  </si>
-  <si>
     <t>"17-10-1995"</t>
   </si>
   <si>
-    <t>"411043"</t>
-  </si>
-  <si>
-    <t>"9822303033"</t>
-  </si>
-  <si>
-    <t>"1234567"</t>
+    <t>kunal</t>
+  </si>
+  <si>
+    <t>mngr450516</t>
+  </si>
+  <si>
+    <t>rugerUg</t>
+  </si>
+  <si>
+    <t>kunaaal999@gmail.com</t>
+  </si>
+  <si>
+    <t>Vikas</t>
+  </si>
+  <si>
+    <t>Vikram</t>
+  </si>
+  <si>
+    <t>kunsl999@gmail.com</t>
+  </si>
+  <si>
+    <t>kun999@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -150,13 +153,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -462,7 +478,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,10 +497,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -494,96 +510,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="F2" s="7">
+        <v>411043</v>
+      </c>
+      <c r="G2" s="6">
+        <v>9822303033</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I2" s="6">
+        <v>1234567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7">
+        <v>411043</v>
+      </c>
+      <c r="G3" s="6">
+        <v>9822303033</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1234567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7">
+        <v>411043</v>
+      </c>
+      <c r="G4" s="6">
+        <v>9822303033</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1234567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="kunal999@gmail.com"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
